--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>45.977138744652</v>
+        <v>31.7044747541211</v>
       </c>
       <c r="R2">
-        <v>413.794248701868</v>
+        <v>285.34027278709</v>
       </c>
       <c r="S2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="T2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>4.416670290542666</v>
+        <v>4.416670290542667</v>
       </c>
       <c r="R3">
-        <v>39.75003261488399</v>
+        <v>39.75003261488401</v>
       </c>
       <c r="S3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="T3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>21.30608544423478</v>
+        <v>18.93901360247278</v>
       </c>
       <c r="R4">
-        <v>191.754768998113</v>
+        <v>170.451122422255</v>
       </c>
       <c r="S4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="T4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
     </row>
   </sheetData>
